--- a/medicine/Handicap/Board_and_Care/Board_and_Care.xlsx
+++ b/medicine/Handicap/Board_and_Care/Board_and_Care.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Board and Care est un court métrage américain réalisé par Ron Ellis (en) et sorti en 1979.
@@ -513,7 +525,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Réalisation et scénario : Ron Ellis (en)
 Production : Sarah Pillsbury
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Richard Goss : Ricky
 Laura Jean Ellis : Lila
@@ -580,9 +596,11 @@
           <t>Nominations et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1980 : Oscar du meilleur court métrage en prises de vues réelles lors de la 52e cérémonie des Oscars[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1980 : Oscar du meilleur court métrage en prises de vues réelles lors de la 52e cérémonie des Oscars.</t>
         </is>
       </c>
     </row>
